--- a/2020-10-09_Project-Methodology_ca_Fredrik-Markestad_FP01.xlsx
+++ b/2020-10-09_Project-Methodology_ca_Fredrik-Markestad_FP01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Assignments</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Dates</t>
   </si>
   <si>
+    <t>Project</t>
+  </si>
+  <si>
     <t>Requirements</t>
   </si>
   <si>
@@ -86,6 +89,18 @@
   </si>
   <si>
     <t>Implementing new website</t>
+  </si>
+  <si>
+    <t>Mark, Ben and Jerry</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>At the end of each major component</t>
+  </si>
+  <si>
+    <t>Product owner, scrum master</t>
   </si>
 </sst>
 </file>
@@ -110,7 +125,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +142,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FFA2C4C9"/>
       </patternFill>
     </fill>
     <fill>
@@ -160,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -172,6 +193,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -180,8 +209,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -198,6 +233,46 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -211,11 +286,9 @@
       </bottom>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -224,9 +297,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -238,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -248,44 +318,76 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="10" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -504,405 +606,468 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.57"/>
+    <col customWidth="1" min="1" max="1" width="33.0"/>
     <col customWidth="1" min="2" max="2" width="31.86"/>
     <col customWidth="1" min="3" max="3" width="15.86"/>
-    <col customWidth="1" min="4" max="19" width="7.86"/>
+    <col customWidth="1" min="4" max="24" width="7.71"/>
   </cols>
   <sheetData>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="D6" s="9">
         <v>43891.0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>43892.0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>43893.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>43894.0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <v>43895.0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="10">
         <v>43896.0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <v>43897.0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="10">
         <v>43898.0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="10">
         <v>43899.0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="10">
         <v>43900.0</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="10">
         <v>43901.0</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="10">
         <v>43902.0</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>43903.0</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="10">
         <v>43904.0</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="10">
         <v>43905.0</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="10">
         <v>43906.0</v>
       </c>
+      <c r="T6" s="10">
+        <v>43907.0</v>
+      </c>
+      <c r="U6" s="10">
+        <v>43908.0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>43909.0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>43910.0</v>
+      </c>
+      <c r="X6" s="11">
+        <v>43911.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="18">
         <v>1.0</v>
       </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14">
+      <c r="B10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22">
         <v>1.0</v>
       </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12">
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18">
         <v>3.0</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22">
         <v>2.0</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14">
+      <c r="B14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22">
         <v>1.0</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="C15" s="22">
         <v>1.0</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12">
+      <c r="F15" s="25"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="18">
         <v>6.0</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="14">
+      <c r="B18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22">
         <v>4.0</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C24" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="14">
+      <c r="B25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="22">
         <v>3.0</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B26" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="22">
         <v>2.0</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="K26" s="27"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B27" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="22">
         <v>2.0</v>
       </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="17"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="26">
-        <v>4.0</v>
-      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="40">
+        <v>5.0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6">

--- a/2020-10-09_Project-Methodology_ca_Fredrik-Markestad_FP01.xlsx
+++ b/2020-10-09_Project-Methodology_ca_Fredrik-Markestad_FP01.xlsx
@@ -118,12 +118,14 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="10">
     <fill>
@@ -308,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -327,8 +329,8 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -342,13 +344,13 @@
     </xf>
     <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -362,12 +364,15 @@
     <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="10" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -376,10 +381,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -781,7 +785,7 @@
       <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="25">
         <v>3.0</v>
       </c>
       <c r="E12" s="15"/>
@@ -801,33 +805,33 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="22">
         <v>1.0</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="22">
         <v>1.0</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
@@ -840,86 +844,85 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="18">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="22">
         <v>4.0</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="25"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="22">
         <v>3.0</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="25"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="22">
         <v>3.0</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="22">
         <v>2.0</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
     </row>
     <row r="22">
       <c r="A22" s="20"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
@@ -927,69 +930,68 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="19"/>
+        <v>4.0</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="22">
         <v>2.0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="25"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="26"/>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="22">
         <v>3.0</v>
       </c>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="34"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="22">
         <v>2.0</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="33"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="22">
         <v>2.0</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="28"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -1002,7 +1004,7 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="18">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -1012,37 +1014,36 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="19"/>
+      <c r="U29" s="29"/>
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="22">
         <v>2.0</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="22">
         <v>5.0</v>
       </c>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="35"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -1054,18 +1055,18 @@
         <v>27</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="18">
+      <c r="C33" s="25">
         <v>5.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="38">
         <v>5.0</v>
       </c>
     </row>
